--- a/Result/check1/2025-03-24.xlsx
+++ b/Result/check1/2025-03-24.xlsx
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
